--- a/biology/Médecine/Bronchogramme/Bronchogramme.xlsx
+++ b/biology/Médecine/Bronchogramme/Bronchogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bronchogramme est la visualisation des bronches sur un examen radiologique.
 Il est dit aérien ; c'est un signe radiologique consistant en une image de bronche trop visible sur une radiographie thoracique standard, le contraste entre la bronche, contenant de l'air, et le parenchyme pulmonaire (essentiellement les alvéoles), remplies de liquide, étant augmenté.
